--- a/Bar.xlsx
+++ b/Bar.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D75A0E3-0902-429F-9DC9-F9844CC3928B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4755" yWindow="2880" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="consultation-summary.json" state="visible" r:id="rId4"/>
+    <sheet name="consultation-summary.json" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Key</t>
   </si>
@@ -20,19 +24,214 @@
   </si>
   <si>
     <t>fr</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>ConsultationName</t>
+  </si>
+  <si>
+    <t>Consultation Name</t>
+  </si>
+  <si>
+    <t>ConsultationSummary</t>
+  </si>
+  <si>
+    <t>Consultation Summary</t>
+  </si>
+  <si>
+    <t>Résumé de la consultation</t>
+  </si>
+  <si>
+    <t>ConsultationSummaryList</t>
+  </si>
+  <si>
+    <t>Consultation Summary List</t>
+  </si>
+  <si>
+    <t>ConsultationSummaryName</t>
+  </si>
+  <si>
+    <t>Consultation Summary - {{consultationSummaryName}}</t>
+  </si>
+  <si>
+    <t>CreateNewConsultationSummary</t>
+  </si>
+  <si>
+    <t>Create New Consultation Summary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CreateConsultationSummary</t>
+  </si>
+  <si>
+    <t>Create Consultation Summary</t>
+  </si>
+  <si>
+    <t>CreatedSuccessfully</t>
+  </si>
+  <si>
+    <t>You have successfully created {{consultationSummaryName}}</t>
+  </si>
+  <si>
+    <t>EditConsultationSummary</t>
+  </si>
+  <si>
+    <t>Edit Consultation Summary</t>
+  </si>
+  <si>
+    <t>EditedSuccessfully</t>
+  </si>
+  <si>
+    <t>You have successfully updated {{consultationSummaryName}}</t>
+  </si>
+  <si>
+    <t>CopyConsultationSummary</t>
+  </si>
+  <si>
+    <t>Copy Consultation Summary</t>
+  </si>
+  <si>
+    <t>DeleteConsultationSummary</t>
+  </si>
+  <si>
+    <t>Delete Consultation Summary</t>
+  </si>
+  <si>
+    <t>DeleteConfirmation</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete {{consultationSummaryName}}</t>
+  </si>
+  <si>
+    <t>DeletedSuccessfully</t>
+  </si>
+  <si>
+    <t>You have successfully deleted {{consultationSummaryName}}</t>
+  </si>
+  <si>
+    <t>DeletedUnsuccessfully</t>
+  </si>
+  <si>
+    <t>Something happened wrong with deleting {{consultationSummaryName}}</t>
+  </si>
+  <si>
+    <t>Don'tShow</t>
+  </si>
+  <si>
+    <t>Don't show</t>
+  </si>
+  <si>
+    <t>Ne pas montrer</t>
+  </si>
+  <si>
+    <t>FindConsultationSummary</t>
+  </si>
+  <si>
+    <t>Find Consultation Summary</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Montrer</t>
+  </si>
+  <si>
+    <t>WhereWeGoFromHere</t>
+  </si>
+  <si>
+    <t>Where We Go From Here</t>
+  </si>
+  <si>
+    <t>Où nous allons d’ici</t>
+  </si>
+  <si>
+    <t>WhereWeHaveBeen</t>
+  </si>
+  <si>
+    <t>Where We Have Been</t>
+  </si>
+  <si>
+    <t>Où nous avons été</t>
+  </si>
+  <si>
+    <t>error::AccessDenied</t>
+  </si>
+  <si>
+    <t>Access denied. Access to the requested page has been denied. Please contact your system administrator if you think there has been an error.</t>
+  </si>
+  <si>
+    <t>error::NotFound</t>
+  </si>
+  <si>
+    <t>The consultation summary you are looking for does not exist.</t>
+  </si>
+  <si>
+    <t>error::SelectDifferentConsultationSummary</t>
+  </si>
+  <si>
+    <t>&lt;0 /&gt; Select a different consultation summary from the &lt;2&gt;Consultation Summary List&lt;/2&gt;.</t>
+  </si>
+  <si>
+    <t>VisibleToCustomer</t>
+  </si>
+  <si>
+    <t>Visible to customer</t>
+  </si>
+  <si>
+    <t>NotVisibleToCustomer</t>
+  </si>
+  <si>
+    <t>Not visible to customer</t>
+  </si>
+  <si>
+    <t>LimitNote</t>
+  </si>
+  <si>
+    <t>Please select a maximum of 5 opportunities to highlight as next steps.</t>
+  </si>
+  <si>
+    <t>NoConsultationSummary</t>
+  </si>
+  <si>
+    <t>There are no Consultation Summary.</t>
+  </si>
+  <si>
+    <t>ClickToCreate</t>
+  </si>
+  <si>
+    <t>Click the &lt;1&gt;Create New Consultation Summary&lt;/1&gt; button to create one now.</t>
+  </si>
+  <si>
+    <t>status::draft</t>
+  </si>
+  <si>
+    <t>Draft!</t>
+  </si>
+  <si>
+    <t>FRFRFRFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,17 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,8 +621,299 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Bar.xlsx
+++ b/Bar.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D75A0E3-0902-429F-9DC9-F9844CC3928B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="4755" yWindow="2880" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="consultation-summary.json" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="consultation-summary.json" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Key</t>
   </si>
@@ -29,12 +25,18 @@
     <t>Buildings</t>
   </si>
   <si>
+    <t>FRFRFRFR</t>
+  </si>
+  <si>
     <t>ConsultationName</t>
   </si>
   <si>
     <t>Consultation Name</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ConsultationSummary</t>
   </si>
   <si>
@@ -62,9 +64,6 @@
     <t>Create New Consultation Summary</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>CreateConsultationSummary</t>
   </si>
   <si>
@@ -216,22 +215,19 @@
   </si>
   <si>
     <t>Draft!</t>
-  </si>
-  <si>
-    <t>FRFRFRFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,17 +590,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="3" width="65" customWidth="1"/>
@@ -629,291 +623,330 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>